--- a/data/VE.xlsx
+++ b/data/VE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\HPRU\Shingrix\Analyses\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HPRU_Shingrix\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D0B5C6-BC66-43B7-99E4-3890B77C1BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1C3593-8385-44D9-9D34-24E0D2C03884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14340" yWindow="2415" windowWidth="14565" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="58">
   <si>
     <t>Source</t>
   </si>
@@ -202,6 +202,15 @@
   </si>
   <si>
     <t>50/60</t>
+  </si>
+  <si>
+    <t>Klein 2023</t>
+  </si>
+  <si>
+    <t>EHR</t>
+  </si>
+  <si>
+    <t>yr11</t>
   </si>
 </sst>
 </file>
@@ -579,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1887,6 +1896,391 @@
       </c>
       <c r="L37">
         <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" t="s">
+        <v>56</v>
+      </c>
+      <c r="J38">
+        <v>67.2</v>
+      </c>
+      <c r="K38">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="L38">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" t="s">
+        <v>56</v>
+      </c>
+      <c r="J39">
+        <v>49.6</v>
+      </c>
+      <c r="K39">
+        <v>47.4</v>
+      </c>
+      <c r="L39">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
+        <v>56</v>
+      </c>
+      <c r="J40">
+        <v>42</v>
+      </c>
+      <c r="K40">
+        <v>39.5</v>
+      </c>
+      <c r="L40">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41">
+        <v>39.9</v>
+      </c>
+      <c r="K41">
+        <v>37.1</v>
+      </c>
+      <c r="L41">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" t="s">
+        <v>56</v>
+      </c>
+      <c r="J42">
+        <v>37</v>
+      </c>
+      <c r="K42">
+        <v>33.9</v>
+      </c>
+      <c r="L42">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>36</v>
+      </c>
+      <c r="H43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" t="s">
+        <v>56</v>
+      </c>
+      <c r="J43">
+        <v>33.5</v>
+      </c>
+      <c r="K43">
+        <v>29.7</v>
+      </c>
+      <c r="L43">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" t="s">
+        <v>56</v>
+      </c>
+      <c r="J44">
+        <v>27.3</v>
+      </c>
+      <c r="K44">
+        <v>22.6</v>
+      </c>
+      <c r="L44">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" t="s">
+        <v>56</v>
+      </c>
+      <c r="J45">
+        <v>26.9</v>
+      </c>
+      <c r="K45">
+        <v>21.4</v>
+      </c>
+      <c r="L45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" t="s">
+        <v>56</v>
+      </c>
+      <c r="J46">
+        <v>25.1</v>
+      </c>
+      <c r="K46">
+        <v>18.8</v>
+      </c>
+      <c r="L46">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>44</v>
+      </c>
+      <c r="H47" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" t="s">
+        <v>56</v>
+      </c>
+      <c r="J47">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K47">
+        <v>11.2</v>
+      </c>
+      <c r="L47">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>57</v>
+      </c>
+      <c r="H48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" t="s">
+        <v>56</v>
+      </c>
+      <c r="J48">
+        <v>14.9</v>
+      </c>
+      <c r="K48">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L48">
+        <v>23.7</v>
       </c>
     </row>
   </sheetData>
